--- a/worth/s.xlsx
+++ b/worth/s.xlsx
@@ -1,25 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G8858\PycharmProjects\SS1\worth\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>表格 1</t>
   </si>
@@ -72,66 +65,91 @@
     <t>兴业银行</t>
   </si>
   <si>
+    <t>601166</t>
+  </si>
+  <si>
     <t>民生银行</t>
   </si>
   <si>
+    <t>600016</t>
+  </si>
+  <si>
     <t>招商银行</t>
   </si>
   <si>
+    <t>600036</t>
+  </si>
+  <si>
     <t>工商银行</t>
   </si>
   <si>
+    <t>601398</t>
+  </si>
+  <si>
     <t>长安汽车</t>
   </si>
   <si>
+    <t>000625</t>
+  </si>
+  <si>
     <t>格力电器</t>
   </si>
   <si>
+    <t>000651</t>
+  </si>
+  <si>
     <t>伊利股份</t>
   </si>
   <si>
+    <t>600887</t>
+  </si>
+  <si>
     <t>保利地产</t>
   </si>
   <si>
-    <t>601166</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>600016</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>600036</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>601398</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>000625</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>000651</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>600887</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>600048</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金地集团</t>
+  </si>
+  <si>
+    <t>600383</t>
+  </si>
+  <si>
+    <t>万科A</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
+    <t>600519</t>
+  </si>
+  <si>
+    <t>浦发银行</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>上汽集团</t>
+  </si>
+  <si>
+    <t>600104</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -139,29 +157,20 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <b val="1"/>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,18 +191,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -205,21 +220,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="10"/>
-      </left>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -233,7 +255,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -242,7 +264,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -251,43 +273,13 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -296,210 +288,232 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="FFFF968C"/>
-      <rgbColor rgb="FFFEFEFE"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffff968c"/>
+      <rgbColor rgb="fffefefe"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -509,10 +523,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -689,40 +703,43 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -747,7 +764,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -773,7 +790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -799,7 +816,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -825,7 +842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -851,7 +868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -877,7 +894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -903,7 +920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -929,7 +946,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -955,7 +972,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -968,15 +985,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -985,15 +996,15 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1012,7 +1023,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1038,7 +1049,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1064,7 +1075,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1090,7 +1101,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1116,7 +1127,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1142,7 +1153,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1168,7 +1179,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1194,7 +1205,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1220,7 +1231,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1246,7 +1257,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1259,15 +1270,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1281,26 +1286,26 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1330,7 +1335,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1356,7 +1361,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1382,7 +1387,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1408,7 +1413,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1434,7 +1439,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1460,7 +1465,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1486,7 +1491,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1512,7 +1517,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1538,7 +1543,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1551,921 +1556,1116 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="24.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="15.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="12.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.59765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.09765625" style="1" customWidth="1"/>
-    <col min="11" max="17" width="5.8984375" style="1" customWidth="1"/>
-    <col min="18" max="257" width="12.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.17188" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.8516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.8516" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85156" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85156" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85156" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85156" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85156" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85156" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85156" style="1" customWidth="1"/>
+    <col min="18" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30.95" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" ht="30.95" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="22.35" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="20" t="s">
+    <row r="2" ht="22.35" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="20" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" t="s" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="22.5" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+    <row r="3" ht="22.5" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" t="s" s="9">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s" s="9">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="22.5" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="22.5" customHeight="1">
+      <c r="A4" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="C4" s="13">
+        <f>H4/15*G4</f>
+        <v>21.15490666666667</v>
+      </c>
+      <c r="D4" s="14">
+        <f>C4/G4</f>
+        <v>1.202666666666667</v>
+      </c>
+      <c r="E4" s="14">
+        <f>I4/15*G4</f>
+        <v>24.95903733333334</v>
+      </c>
+      <c r="F4" s="14">
+        <f>E4/G4</f>
+        <v>1.418933333333334</v>
+      </c>
+      <c r="G4" s="15">
+        <v>17.59</v>
+      </c>
+      <c r="H4" s="14">
+        <f>AVERAGE(J4*4,K4)</f>
+        <v>18.04</v>
+      </c>
+      <c r="I4" s="15">
+        <f>AVERAGE(K4:O4)</f>
+        <v>21.284</v>
+      </c>
+      <c r="J4" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="K4" s="15">
+        <v>17.28</v>
+      </c>
+      <c r="L4" s="15">
+        <v>18.89</v>
+      </c>
+      <c r="M4" s="15">
+        <v>21.21</v>
+      </c>
+      <c r="N4" s="15">
+        <v>22.39</v>
+      </c>
+      <c r="O4" s="15">
+        <v>26.65</v>
+      </c>
+      <c r="P4" s="15">
+        <v>24.62</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>24.43</v>
+      </c>
+    </row>
+    <row r="5" ht="22.35" customHeight="1">
+      <c r="A5" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="17">
+        <v>19</v>
+      </c>
+      <c r="C5" s="18">
+        <f>H5/15*G5</f>
+        <v>10.09645</v>
+      </c>
+      <c r="D5" s="19">
+        <f>C5/G5</f>
+        <v>1.061666666666667</v>
+      </c>
+      <c r="E5" s="19">
+        <f>I5/15*G5</f>
+        <v>12.805532</v>
+      </c>
+      <c r="F5" s="19">
+        <f>E5/G5</f>
+        <v>1.346533333333333</v>
+      </c>
+      <c r="G5" s="20">
+        <v>9.51</v>
+      </c>
+      <c r="H5" s="20">
+        <f>AVERAGE(J5*4,K5)</f>
+        <v>15.925</v>
+      </c>
+      <c r="I5" s="20">
+        <f>AVERAGE(K5:O5)</f>
+        <v>20.198</v>
+      </c>
+      <c r="J5" s="20">
+        <v>4.18</v>
+      </c>
+      <c r="K5" s="20">
+        <v>15.13</v>
+      </c>
+      <c r="L5" s="20">
+        <v>16.98</v>
+      </c>
+      <c r="M5" s="20">
+        <v>20.41</v>
+      </c>
+      <c r="N5" s="20">
+        <v>23.23</v>
+      </c>
+      <c r="O5" s="20">
+        <v>25.24</v>
+      </c>
+      <c r="P5" s="20">
+        <v>23.95</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>18.29</v>
+      </c>
+    </row>
+    <row r="6" ht="22.35" customHeight="1">
+      <c r="A6" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="C6" s="21">
+        <f>H6/15*G6</f>
+        <v>52.2362</v>
+      </c>
+      <c r="D6" s="19">
+        <f>C6/G6</f>
+        <v>3.131666666666667</v>
+      </c>
+      <c r="E6" s="22">
+        <f>I6/15*G6</f>
+        <v>22.360096</v>
+      </c>
+      <c r="F6" s="19">
+        <f>E6/G6</f>
+        <v>1.340533333333333</v>
+      </c>
+      <c r="G6" s="20">
+        <v>16.68</v>
+      </c>
+      <c r="H6" s="20">
+        <f>AVERAGE(J6*4,K6)</f>
+        <v>46.975</v>
+      </c>
+      <c r="I6" s="20">
+        <f>AVERAGE(K6:O6)</f>
+        <v>20.108</v>
+      </c>
+      <c r="J6" s="20">
+        <v>19.42</v>
+      </c>
+      <c r="K6" s="20">
+        <v>16.27</v>
+      </c>
+      <c r="L6" s="20">
+        <v>17.09</v>
+      </c>
+      <c r="M6" s="20">
+        <v>19.28</v>
+      </c>
+      <c r="N6" s="20">
+        <v>23.12</v>
+      </c>
+      <c r="O6" s="20">
+        <v>24.78</v>
+      </c>
+      <c r="P6" s="20">
+        <v>24.17</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="7" ht="22.35" customHeight="1">
+      <c r="A7" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="C7" s="18">
+        <f>H7/15*G7</f>
+        <v>5.64928</v>
+      </c>
+      <c r="D7" s="19">
+        <f>C7/G7</f>
+        <v>1.034666666666667</v>
+      </c>
+      <c r="E7" s="19">
+        <f>I7/15*G7</f>
+        <v>7.079072</v>
+      </c>
+      <c r="F7" s="19">
+        <f>E7/G7</f>
+        <v>1.296533333333333</v>
+      </c>
+      <c r="G7" s="20">
+        <v>5.46</v>
+      </c>
+      <c r="H7" s="20">
+        <f>AVERAGE(J7*4,K7)</f>
+        <v>15.52</v>
+      </c>
+      <c r="I7" s="19">
+        <f>AVERAGE(K7:O7)</f>
+        <v>19.448</v>
+      </c>
+      <c r="J7" s="20">
+        <v>3.95</v>
+      </c>
+      <c r="K7" s="20">
+        <v>15.24</v>
+      </c>
+      <c r="L7" s="19">
+        <v>17.1</v>
+      </c>
+      <c r="M7" s="20">
+        <v>19.96</v>
+      </c>
+      <c r="N7" s="20">
+        <v>21.92</v>
+      </c>
+      <c r="O7" s="20">
+        <v>23.02</v>
+      </c>
+      <c r="P7" s="20">
+        <v>23.44</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>22.79</v>
+      </c>
+    </row>
+    <row r="8" ht="22.35" customHeight="1">
+      <c r="A8" t="s" s="16">
         <v>24</v>
       </c>
-      <c r="C4" s="6">
-        <f t="shared" ref="C4:C11" si="0">H4/15*G4</f>
-        <v>21.154906666666665</v>
-      </c>
-      <c r="D4" s="7">
-        <f t="shared" ref="D4:D11" si="1">C4/G4</f>
-        <v>1.2026666666666666</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" ref="E4:E11" si="2">I4/15*G4</f>
-        <v>24.959037333333338</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" ref="F4:F11" si="3">E4/G4</f>
-        <v>1.4189333333333336</v>
-      </c>
-      <c r="G4" s="8">
-        <v>17.59</v>
-      </c>
-      <c r="H4" s="8">
-        <f t="shared" ref="H4:H11" si="4">AVERAGE(J4*4,K4)</f>
-        <v>18.04</v>
-      </c>
-      <c r="I4" s="8">
-        <f t="shared" ref="I4:I11" si="5">AVERAGE(K4:O4)</f>
-        <v>21.284000000000002</v>
-      </c>
-      <c r="J4" s="7">
-        <v>4.7</v>
-      </c>
-      <c r="K4" s="8">
-        <v>17.28</v>
-      </c>
-      <c r="L4" s="8">
-        <v>18.89</v>
-      </c>
-      <c r="M4" s="8">
-        <v>21.21</v>
-      </c>
-      <c r="N4" s="8">
-        <v>22.39</v>
-      </c>
-      <c r="O4" s="8">
-        <v>26.65</v>
-      </c>
-      <c r="P4" s="8">
-        <v>24.62</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>24.43</v>
+      <c r="B8" t="s" s="17">
+        <v>25</v>
+      </c>
+      <c r="C8" s="18">
+        <f>H8/15*G8</f>
+        <v>15.39175</v>
+      </c>
+      <c r="D8" s="19">
+        <f>C8/G8</f>
+        <v>1.608333333333333</v>
+      </c>
+      <c r="E8" s="19">
+        <f>I8/15*G8</f>
+        <v>16.024008</v>
+      </c>
+      <c r="F8" s="19">
+        <f>E8/G8</f>
+        <v>1.6744</v>
+      </c>
+      <c r="G8" s="20">
+        <v>9.57</v>
+      </c>
+      <c r="H8" s="20">
+        <f>AVERAGE(J8*4,K8)</f>
+        <v>24.125</v>
+      </c>
+      <c r="I8" s="19">
+        <f>AVERAGE(K8:O8)</f>
+        <v>25.116</v>
+      </c>
+      <c r="J8" s="20">
+        <v>5.36</v>
+      </c>
+      <c r="K8" s="20">
+        <v>26.81</v>
+      </c>
+      <c r="L8" s="20">
+        <v>33.14</v>
+      </c>
+      <c r="M8" s="19">
+        <v>34.2</v>
+      </c>
+      <c r="N8" s="20">
+        <v>21.77</v>
+      </c>
+      <c r="O8" s="20">
+        <v>9.66</v>
+      </c>
+      <c r="P8" s="20">
+        <v>6.86</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>20.39</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="22.35" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="10">
-        <f t="shared" si="0"/>
-        <v>10.096450000000001</v>
-      </c>
-      <c r="D5" s="11">
-        <f t="shared" si="1"/>
-        <v>1.0616666666666668</v>
-      </c>
-      <c r="E5" s="11">
-        <f t="shared" si="2"/>
-        <v>12.805531999999999</v>
-      </c>
-      <c r="F5" s="11">
-        <f t="shared" si="3"/>
-        <v>1.3465333333333334</v>
-      </c>
-      <c r="G5" s="12">
-        <v>9.51</v>
-      </c>
-      <c r="H5" s="12">
-        <f t="shared" si="4"/>
-        <v>15.925000000000001</v>
-      </c>
-      <c r="I5" s="12">
-        <f t="shared" si="5"/>
-        <v>20.198</v>
-      </c>
-      <c r="J5" s="12">
-        <v>4.18</v>
-      </c>
-      <c r="K5" s="12">
-        <v>15.13</v>
-      </c>
-      <c r="L5" s="12">
-        <v>16.98</v>
-      </c>
-      <c r="M5" s="12">
-        <v>20.41</v>
-      </c>
-      <c r="N5" s="12">
-        <v>23.23</v>
-      </c>
-      <c r="O5" s="12">
-        <v>25.24</v>
-      </c>
-      <c r="P5" s="12">
-        <v>23.95</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>18.29</v>
+    <row r="9" ht="22.35" customHeight="1">
+      <c r="A9" t="s" s="16">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s" s="17">
+        <v>27</v>
+      </c>
+      <c r="C9" s="18">
+        <f>H9/15*G9</f>
+        <v>18.97384666666667</v>
+      </c>
+      <c r="D9" s="19">
+        <f>C9/G9</f>
+        <v>1.972333333333333</v>
+      </c>
+      <c r="E9" s="19">
+        <f>I9/15*G9</f>
+        <v>20.53549333333333</v>
+      </c>
+      <c r="F9" s="19">
+        <f>E9/G9</f>
+        <v>2.134666666666666</v>
+      </c>
+      <c r="G9" s="20">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="H9" s="20">
+        <f>AVERAGE(J9*4,K9)</f>
+        <v>29.585</v>
+      </c>
+      <c r="I9" s="20">
+        <f>AVERAGE(K9:O9)</f>
+        <v>32.02</v>
+      </c>
+      <c r="J9" s="20">
+        <v>7.19</v>
+      </c>
+      <c r="K9" s="20">
+        <v>30.41</v>
+      </c>
+      <c r="L9" s="20">
+        <v>27.31</v>
+      </c>
+      <c r="M9" s="20">
+        <v>35.23</v>
+      </c>
+      <c r="N9" s="20">
+        <v>35.77</v>
+      </c>
+      <c r="O9" s="20">
+        <v>31.38</v>
+      </c>
+      <c r="P9" s="19">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>36.51</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="22.35" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="13">
-        <f t="shared" si="0"/>
-        <v>52.236200000000004</v>
-      </c>
-      <c r="D6" s="11">
-        <f t="shared" si="1"/>
-        <v>3.1316666666666668</v>
-      </c>
-      <c r="E6" s="14">
-        <f t="shared" si="2"/>
-        <v>22.360095999999999</v>
-      </c>
-      <c r="F6" s="11">
-        <f t="shared" si="3"/>
-        <v>1.3405333333333334</v>
-      </c>
-      <c r="G6" s="12">
-        <v>16.68</v>
-      </c>
-      <c r="H6" s="12">
-        <f t="shared" si="4"/>
-        <v>46.975000000000001</v>
-      </c>
-      <c r="I6" s="12">
-        <f t="shared" si="5"/>
-        <v>20.108000000000001</v>
-      </c>
-      <c r="J6" s="12">
-        <v>19.420000000000002</v>
-      </c>
-      <c r="K6" s="12">
-        <v>16.27</v>
-      </c>
-      <c r="L6" s="12">
-        <v>17.09</v>
-      </c>
-      <c r="M6" s="12">
-        <v>19.28</v>
-      </c>
-      <c r="N6" s="12">
-        <v>23.12</v>
-      </c>
-      <c r="O6" s="12">
-        <v>24.78</v>
-      </c>
-      <c r="P6" s="12">
-        <v>24.17</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>21.75</v>
+    <row r="10" ht="22.35" customHeight="1">
+      <c r="A10" t="s" s="16">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s" s="17">
+        <v>29</v>
+      </c>
+      <c r="C10" s="21">
+        <f>H10/15*G10</f>
+        <v>7.55344</v>
+      </c>
+      <c r="D10" s="19">
+        <f>C10/G10</f>
+        <v>1.851333333333333</v>
+      </c>
+      <c r="E10" s="22">
+        <f>I10/15*G10</f>
+        <v>6.703711999999999</v>
+      </c>
+      <c r="F10" s="19">
+        <f>E10/G10</f>
+        <v>1.643066666666666</v>
+      </c>
+      <c r="G10" s="20">
+        <v>4.08</v>
+      </c>
+      <c r="H10" s="20">
+        <f>AVERAGE(J10*4,K10)</f>
+        <v>27.77</v>
+      </c>
+      <c r="I10" s="20">
+        <f>AVERAGE(K10:O10)</f>
+        <v>24.646</v>
+      </c>
+      <c r="J10" s="20">
+        <v>7.24</v>
+      </c>
+      <c r="K10" s="20">
+        <v>26.58</v>
+      </c>
+      <c r="L10" s="20">
+        <v>23.87</v>
+      </c>
+      <c r="M10" s="20">
+        <v>23.66</v>
+      </c>
+      <c r="N10" s="20">
+        <v>23.15</v>
+      </c>
+      <c r="O10" s="20">
+        <v>25.97</v>
+      </c>
+      <c r="P10" s="20">
+        <v>35.33</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>20.28</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="22.35" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="10">
-        <f t="shared" si="0"/>
-        <v>5.6492800000000001</v>
-      </c>
-      <c r="D7" s="11">
-        <f t="shared" si="1"/>
-        <v>1.0346666666666666</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" si="2"/>
-        <v>7.079072</v>
-      </c>
-      <c r="F7" s="11">
-        <f t="shared" si="3"/>
-        <v>1.2965333333333333</v>
-      </c>
-      <c r="G7" s="12">
-        <v>5.46</v>
-      </c>
-      <c r="H7" s="12">
-        <f t="shared" si="4"/>
-        <v>15.52</v>
-      </c>
-      <c r="I7" s="12">
-        <f t="shared" si="5"/>
-        <v>19.448</v>
-      </c>
-      <c r="J7" s="12">
-        <v>3.95</v>
-      </c>
-      <c r="K7" s="12">
+    <row r="11" ht="22.35" customHeight="1">
+      <c r="A11" t="s" s="16">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s" s="17">
+        <v>31</v>
+      </c>
+      <c r="C11" s="18">
+        <f>H11/15*G11</f>
+        <v>6.142033333333333</v>
+      </c>
+      <c r="D11" s="19">
+        <f>C11/G11</f>
+        <v>0.7976666666666666</v>
+      </c>
+      <c r="E11" s="19">
+        <f>I11/15*G11</f>
+        <v>10.32826666666667</v>
+      </c>
+      <c r="F11" s="19">
+        <f>E11/G11</f>
+        <v>1.341333333333333</v>
+      </c>
+      <c r="G11" s="19">
+        <v>7.7</v>
+      </c>
+      <c r="H11" s="19">
+        <f>AVERAGE(J11*4,K11)</f>
+        <v>11.965</v>
+      </c>
+      <c r="I11" s="20">
+        <f>AVERAGE(K11:O11)</f>
+        <v>20.12</v>
+      </c>
+      <c r="J11" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="K11" s="20">
+        <v>15.53</v>
+      </c>
+      <c r="L11" s="20">
+        <v>18.63</v>
+      </c>
+      <c r="M11" s="20">
+        <v>21.65</v>
+      </c>
+      <c r="N11" s="20">
+        <v>22.95</v>
+      </c>
+      <c r="O11" s="20">
+        <v>21.84</v>
+      </c>
+      <c r="P11" s="19">
+        <v>20.2</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>18.02</v>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1">
+      <c r="A12" t="s" s="16">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s" s="17">
+        <v>33</v>
+      </c>
+      <c r="C12" s="18">
+        <f>H12/15*G12</f>
+        <v>7.625280000000001</v>
+      </c>
+      <c r="D12" s="19">
+        <f>C12/G12</f>
+        <v>0.9013333333333333</v>
+      </c>
+      <c r="E12" s="19">
+        <f>I12/15*G12</f>
+        <v>7.814784</v>
+      </c>
+      <c r="F12" s="19">
+        <f>E12/G12</f>
+        <v>0.9237333333333333</v>
+      </c>
+      <c r="G12" s="20">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="H12" s="19">
+        <f>AVERAGE(J12*4,K12)</f>
+        <v>13.52</v>
+      </c>
+      <c r="I12" s="20">
+        <f>AVERAGE(K12:O12)</f>
+        <v>13.856</v>
+      </c>
+      <c r="J12" s="19">
+        <v>2.3</v>
+      </c>
+      <c r="K12" s="20">
+        <v>17.84</v>
+      </c>
+      <c r="L12" s="20">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="M12" s="20">
+        <v>13.23</v>
+      </c>
+      <c r="N12" s="20">
+        <v>13.11</v>
+      </c>
+      <c r="O12" s="20">
         <v>15.24</v>
       </c>
-      <c r="L7" s="11">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="M7" s="12">
-        <v>19.96</v>
-      </c>
-      <c r="N7" s="12">
-        <v>21.92</v>
-      </c>
-      <c r="O7" s="12">
-        <v>23.02</v>
-      </c>
-      <c r="P7" s="12">
-        <v>23.44</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>22.79</v>
+      <c r="P12" s="20">
+        <v>15.78</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>16.55</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="22.35" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="10">
-        <f t="shared" si="0"/>
-        <v>15.391750000000002</v>
-      </c>
-      <c r="D8" s="11">
-        <f t="shared" si="1"/>
-        <v>1.6083333333333334</v>
-      </c>
-      <c r="E8" s="11">
-        <f t="shared" si="2"/>
-        <v>16.024007999999998</v>
-      </c>
-      <c r="F8" s="11">
-        <f t="shared" si="3"/>
-        <v>1.6743999999999999</v>
-      </c>
-      <c r="G8" s="12">
-        <v>9.57</v>
-      </c>
-      <c r="H8" s="12">
-        <f t="shared" si="4"/>
-        <v>24.125</v>
-      </c>
-      <c r="I8" s="12">
-        <f t="shared" si="5"/>
-        <v>25.116</v>
-      </c>
-      <c r="J8" s="12">
-        <v>5.36</v>
-      </c>
-      <c r="K8" s="12">
-        <v>26.81</v>
-      </c>
-      <c r="L8" s="12">
-        <v>33.14</v>
-      </c>
-      <c r="M8" s="11">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="N8" s="12">
-        <v>21.77</v>
-      </c>
-      <c r="O8" s="12">
-        <v>9.66</v>
-      </c>
-      <c r="P8" s="12">
-        <v>6.86</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>20.39</v>
+    <row r="13" ht="24" customHeight="1">
+      <c r="A13" t="s" s="16">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s" s="17">
+        <v>35</v>
+      </c>
+      <c r="C13" s="18">
+        <f>H13/15*G13</f>
+        <v>7.609280000000001</v>
+      </c>
+      <c r="D13" s="19">
+        <f>C13/G13</f>
+        <v>0.7373333333333334</v>
+      </c>
+      <c r="E13" s="19">
+        <f>I13/15*G13</f>
+        <v>13.894848</v>
+      </c>
+      <c r="F13" s="19">
+        <f>E13/G13</f>
+        <v>1.3464</v>
+      </c>
+      <c r="G13" s="23">
+        <v>10.32</v>
+      </c>
+      <c r="H13" s="19">
+        <f>AVERAGE(J13*4,K13)</f>
+        <v>11.06</v>
+      </c>
+      <c r="I13" s="20">
+        <f>AVERAGE(K13:O13)</f>
+        <v>20.196</v>
+      </c>
+      <c r="J13" s="24">
+        <v>0.61</v>
+      </c>
+      <c r="K13" s="23">
+        <v>19.68</v>
+      </c>
+      <c r="L13" s="23">
+        <v>19.14</v>
+      </c>
+      <c r="M13" s="23">
+        <v>19.17</v>
+      </c>
+      <c r="N13" s="23">
+        <v>21.54</v>
+      </c>
+      <c r="O13" s="23">
+        <v>21.45</v>
+      </c>
+      <c r="P13" s="23">
+        <v>19.83</v>
+      </c>
+      <c r="Q13" s="23">
+        <v>17.79</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="22.35" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="10">
-        <f t="shared" si="0"/>
-        <v>18.973846666666667</v>
-      </c>
-      <c r="D9" s="11">
-        <f t="shared" si="1"/>
-        <v>1.9723333333333335</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" si="2"/>
-        <v>20.535493333333331</v>
-      </c>
-      <c r="F9" s="11">
-        <f t="shared" si="3"/>
-        <v>2.1346666666666665</v>
-      </c>
-      <c r="G9" s="12">
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="H9" s="12">
-        <f t="shared" si="4"/>
-        <v>29.585000000000001</v>
-      </c>
-      <c r="I9" s="12">
-        <f t="shared" si="5"/>
-        <v>32.019999999999996</v>
-      </c>
-      <c r="J9" s="12">
-        <v>7.19</v>
-      </c>
-      <c r="K9" s="12">
-        <v>30.41</v>
-      </c>
-      <c r="L9" s="12">
-        <v>27.31</v>
-      </c>
-      <c r="M9" s="12">
-        <v>35.229999999999997</v>
-      </c>
-      <c r="N9" s="12">
-        <v>35.770000000000003</v>
-      </c>
-      <c r="O9" s="12">
-        <v>31.38</v>
-      </c>
-      <c r="P9" s="11">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>36.51</v>
+    <row r="14" ht="24" customHeight="1">
+      <c r="A14" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s" s="17">
+        <v>37</v>
+      </c>
+      <c r="C14" s="18">
+        <f>H14/15*G14</f>
+        <v>118.8390666666667</v>
+      </c>
+      <c r="D14" s="19">
+        <f>C14/G14</f>
+        <v>1.889333333333334</v>
+      </c>
+      <c r="E14" s="19">
+        <f>I14/15*G14</f>
+        <v>140.1076533333333</v>
+      </c>
+      <c r="F14" s="19">
+        <f>E14/G14</f>
+        <v>2.227466666666666</v>
+      </c>
+      <c r="G14" s="24">
+        <v>62.9</v>
+      </c>
+      <c r="H14" s="19">
+        <f>AVERAGE(J14*4,K14)</f>
+        <v>28.34</v>
+      </c>
+      <c r="I14" s="20">
+        <f>AVERAGE(K14:O14)</f>
+        <v>33.412</v>
+      </c>
+      <c r="J14" s="24">
+        <v>8.06</v>
+      </c>
+      <c r="K14" s="23">
+        <v>24.44</v>
+      </c>
+      <c r="L14" s="23">
+        <v>26.23</v>
+      </c>
+      <c r="M14" s="23">
+        <v>31.96</v>
+      </c>
+      <c r="N14" s="23">
+        <v>39.43</v>
+      </c>
+      <c r="O14" s="24">
+        <v>45</v>
+      </c>
+      <c r="P14" s="23">
+        <v>40.39</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>30.91</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="22.35" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="13">
-        <f t="shared" si="0"/>
-        <v>7.5534400000000002</v>
-      </c>
-      <c r="D10" s="11">
-        <f t="shared" si="1"/>
-        <v>1.8513333333333333</v>
-      </c>
-      <c r="E10" s="14">
-        <f t="shared" si="2"/>
-        <v>6.7037119999999994</v>
-      </c>
-      <c r="F10" s="11">
-        <f t="shared" si="3"/>
-        <v>1.6430666666666665</v>
-      </c>
-      <c r="G10" s="12">
-        <v>4.08</v>
-      </c>
-      <c r="H10" s="12">
-        <f t="shared" si="4"/>
-        <v>27.77</v>
-      </c>
-      <c r="I10" s="12">
-        <f t="shared" si="5"/>
-        <v>24.645999999999997</v>
-      </c>
-      <c r="J10" s="12">
-        <v>7.24</v>
-      </c>
-      <c r="K10" s="12">
-        <v>26.58</v>
-      </c>
-      <c r="L10" s="12">
-        <v>23.87</v>
-      </c>
-      <c r="M10" s="12">
-        <v>23.66</v>
-      </c>
-      <c r="N10" s="12">
-        <v>23.15</v>
-      </c>
-      <c r="O10" s="12">
-        <v>25.97</v>
-      </c>
-      <c r="P10" s="12">
-        <v>35.33</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>20.28</v>
+    <row r="15" ht="24" customHeight="1">
+      <c r="A15" t="s" s="16">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s" s="17">
+        <v>39</v>
+      </c>
+      <c r="C15" s="18">
+        <f>H15/15*G15</f>
+        <v>17.3826</v>
+      </c>
+      <c r="D15" s="19">
+        <f>C15/G15</f>
+        <v>1.073</v>
+      </c>
+      <c r="E15" s="19">
+        <f>I15/15*G15</f>
+        <v>21.438</v>
+      </c>
+      <c r="F15" s="19">
+        <f>E15/G15</f>
+        <v>1.323333333333333</v>
+      </c>
+      <c r="G15" s="24">
+        <v>16.2</v>
+      </c>
+      <c r="H15" s="19">
+        <f>AVERAGE(J15*4,K15)</f>
+        <v>16.095</v>
+      </c>
+      <c r="I15" s="20">
+        <f>AVERAGE(K15:O15)</f>
+        <v>19.85</v>
+      </c>
+      <c r="J15" s="24">
+        <v>3.96</v>
+      </c>
+      <c r="K15" s="23">
+        <v>16.35</v>
+      </c>
+      <c r="L15" s="23">
+        <v>18.82</v>
+      </c>
+      <c r="M15" s="23">
+        <v>21.02</v>
+      </c>
+      <c r="N15" s="23">
+        <v>21.53</v>
+      </c>
+      <c r="O15" s="23">
+        <v>21.53</v>
+      </c>
+      <c r="P15" s="23">
+        <v>21.53</v>
+      </c>
+      <c r="Q15" s="23">
+        <v>23.27</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="22.35" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="10">
-        <f t="shared" si="0"/>
-        <v>6.142033333333333</v>
-      </c>
-      <c r="D11" s="11">
-        <f t="shared" si="1"/>
-        <v>0.79766666666666663</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" si="2"/>
-        <v>10.328266666666666</v>
-      </c>
-      <c r="F11" s="11">
-        <f t="shared" si="3"/>
-        <v>1.3413333333333333</v>
-      </c>
-      <c r="G11" s="11">
-        <v>7.7</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="4"/>
-        <v>11.965</v>
-      </c>
-      <c r="I11" s="12">
-        <f t="shared" si="5"/>
-        <v>20.119999999999997</v>
-      </c>
-      <c r="J11" s="11">
-        <v>2.1</v>
-      </c>
-      <c r="K11" s="12">
-        <v>15.53</v>
-      </c>
-      <c r="L11" s="12">
-        <v>18.63</v>
-      </c>
-      <c r="M11" s="12">
-        <v>21.65</v>
-      </c>
-      <c r="N11" s="12">
-        <v>22.95</v>
-      </c>
-      <c r="O11" s="12">
-        <v>21.84</v>
-      </c>
-      <c r="P11" s="11">
-        <v>20.2</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>18.02</v>
+    <row r="16" ht="24" customHeight="1">
+      <c r="A16" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s" s="17">
+        <v>41</v>
+      </c>
+      <c r="C16" s="18">
+        <f>H16/15*G16</f>
+        <v>20.62095</v>
+      </c>
+      <c r="D16" s="19">
+        <f>C16/G16</f>
+        <v>1.117666666666667</v>
+      </c>
+      <c r="E16" s="19">
+        <f>I16/15*G16</f>
+        <v>22.632</v>
+      </c>
+      <c r="F16" s="19">
+        <f>E16/G16</f>
+        <v>1.226666666666667</v>
+      </c>
+      <c r="G16" s="23">
+        <v>18.45</v>
+      </c>
+      <c r="H16" s="19">
+        <f>AVERAGE(J16*4,K16)</f>
+        <v>16.765</v>
+      </c>
+      <c r="I16" s="20">
+        <f>AVERAGE(K16:O16)</f>
+        <v>18.4</v>
+      </c>
+      <c r="J16" s="24">
+        <v>4</v>
+      </c>
+      <c r="K16" s="23">
+        <v>17.53</v>
+      </c>
+      <c r="L16" s="23">
+        <v>17.91</v>
+      </c>
+      <c r="M16" s="23">
+        <v>18.97</v>
+      </c>
+      <c r="N16" s="23">
+        <v>19.07</v>
+      </c>
+      <c r="O16" s="23">
+        <v>18.52</v>
+      </c>
+      <c r="P16" s="23">
+        <v>21.37</v>
+      </c>
+      <c r="Q16" s="23">
+        <v>23.68</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="24" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
+    <row r="17" ht="24" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
     </row>
-    <row r="13" spans="1:17" ht="24" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
+    <row r="18" ht="24" customHeight="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
     </row>
-    <row r="14" spans="1:17" ht="24" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
+    <row r="19" ht="24" customHeight="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
     </row>
-    <row r="15" spans="1:17" ht="24" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
+    <row r="20" ht="24" customHeight="1">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
     </row>
-    <row r="16" spans="1:17" ht="24" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
+    <row r="21" ht="24" customHeight="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
     </row>
-    <row r="17" spans="1:17" ht="24" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
+    <row r="22" ht="24" customHeight="1">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
     </row>
-    <row r="18" spans="1:17" ht="24" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
+    <row r="23" ht="24" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
     </row>
-    <row r="19" spans="1:17" ht="24" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
+    <row r="24" ht="24" customHeight="1">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
     </row>
-    <row r="20" spans="1:17" ht="24" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
+    <row r="25" ht="24" customHeight="1">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
     </row>
-    <row r="21" spans="1:17" ht="24" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-    </row>
-    <row r="22" spans="1:17" ht="24" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-    </row>
-    <row r="23" spans="1:17" ht="24" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-    </row>
-    <row r="24" spans="1:17" ht="24" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-    </row>
-    <row r="25" spans="1:17" ht="24" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-    </row>
-    <row r="26" spans="1:17" ht="24" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
+    <row r="26" ht="24" customHeight="1">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="M2:M3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
